--- a/files/表头映射.xlsx
+++ b/files/表头映射.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10560" windowHeight="9825"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
   <si>
     <t>模板表头（A 列）</t>
   </si>
@@ -40,18 +40,12 @@
     <t>查询卡号</t>
   </si>
   <si>
-    <t>折/卡号/存单号</t>
-  </si>
-  <si>
     <t>交易类型</t>
   </si>
   <si>
     <t>交易金额</t>
   </si>
   <si>
-    <t>发生额 / 交易金额</t>
-  </si>
-  <si>
     <t>交易日期</t>
   </si>
   <si>
@@ -61,93 +55,51 @@
     <t>交易网点名称</t>
   </si>
   <si>
-    <t>网点名称</t>
-  </si>
-  <si>
     <t>借贷标志</t>
   </si>
   <si>
-    <t>借贷标志 / 借方贷方</t>
-  </si>
-  <si>
     <t>币种</t>
   </si>
   <si>
     <t>交易余额</t>
   </si>
   <si>
-    <t>余额</t>
-  </si>
-  <si>
     <t>交易流水号</t>
   </si>
   <si>
-    <t>流水号</t>
-  </si>
-  <si>
     <t>交易对方名称</t>
   </si>
   <si>
-    <t>对方名称</t>
-  </si>
-  <si>
     <t>交易对方账号</t>
   </si>
   <si>
-    <t>对方账号</t>
-  </si>
-  <si>
     <t>交易对方卡号</t>
   </si>
   <si>
-    <t>对方卡号</t>
-  </si>
-  <si>
     <t>交易对方证件号码</t>
   </si>
   <si>
-    <t>对方证件</t>
-  </si>
-  <si>
     <t>交易对手余额</t>
   </si>
   <si>
-    <t>对方余额</t>
-  </si>
-  <si>
     <t>交易对方账号开户行</t>
   </si>
   <si>
-    <t>对方开户行</t>
-  </si>
-  <si>
     <t>交易摘要</t>
   </si>
   <si>
-    <t>摘要 / 用途</t>
-  </si>
-  <si>
     <t>交易网点代码</t>
   </si>
   <si>
-    <t>网点代码</t>
-  </si>
-  <si>
     <t>终端号</t>
   </si>
   <si>
     <t>交易是否成功</t>
   </si>
   <si>
-    <t>成功标志</t>
-  </si>
-  <si>
     <t>交易发生地</t>
   </si>
   <si>
-    <t>发生地</t>
-  </si>
-  <si>
     <t>商户名称</t>
   </si>
   <si>
@@ -163,34 +115,19 @@
     <t>交易柜员号</t>
   </si>
   <si>
-    <t>柜员号</t>
-  </si>
-  <si>
     <t>备注</t>
   </si>
   <si>
     <t>请求单标识</t>
   </si>
   <si>
-    <t>请求单ID</t>
-  </si>
-  <si>
     <t>查控主体类别</t>
   </si>
   <si>
-    <t>主体类别</t>
-  </si>
-  <si>
     <t>申请机构代码</t>
   </si>
   <si>
-    <t>申请机构</t>
-  </si>
-  <si>
     <t>目标机构代码</t>
-  </si>
-  <si>
-    <t>目标机构</t>
   </si>
   <si>
     <t>回执时间</t>
@@ -1141,7 +1078,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1150,7 +1087,7 @@
     <col min="2" max="2" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="81" spans="1:2">
+    <row r="1" ht="40.5" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1158,260 +1095,260 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="27" spans="1:2">
+    <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="28.5" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7" ht="27" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" ht="42" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" ht="27" spans="1:2">
-      <c r="A11" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" ht="27" spans="1:2">
-      <c r="A12" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" ht="27" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="27" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" ht="27" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" ht="27" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" ht="40.5" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" ht="28.5" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" ht="27" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="B19" s="2" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" ht="27" spans="1:2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" ht="27" spans="1:2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>38</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" ht="27" spans="1:2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" ht="27" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" s="2" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" ht="27" spans="1:2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" s="2" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" ht="27" spans="1:2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" ht="27" spans="1:2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" s="2" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/files/表头映射.xlsx
+++ b/files/表头映射.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,20 +27,26 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
-  <si>
-    <t>模板表头（A 列）</t>
-  </si>
-  <si>
-    <t>源表头（B 列）（你源文件里实际出现的列名）</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="66">
+  <si>
+    <t>模板表头</t>
+  </si>
+  <si>
+    <t>源表头</t>
   </si>
   <si>
     <t>查询卡号</t>
   </si>
   <si>
+    <t>折/卡号/存单号</t>
+  </si>
+  <si>
     <t>交易类型</t>
   </si>
   <si>
+    <t>交易渠道</t>
+  </si>
+  <si>
     <t>交易金额</t>
   </si>
   <si>
@@ -55,6 +59,9 @@
     <t>交易网点名称</t>
   </si>
   <si>
+    <t>交易机构名称</t>
+  </si>
+  <si>
     <t>借贷标志</t>
   </si>
   <si>
@@ -64,15 +71,27 @@
     <t>交易余额</t>
   </si>
   <si>
+    <t>账户余额</t>
+  </si>
+  <si>
     <t>交易流水号</t>
   </si>
   <si>
+    <t>交易流水</t>
+  </si>
+  <si>
     <t>交易对方名称</t>
   </si>
   <si>
+    <t>对方名称/钱包昵称</t>
+  </si>
+  <si>
     <t>交易对方账号</t>
   </si>
   <si>
+    <t>对方账卡号/钱包ID</t>
+  </si>
+  <si>
     <t>交易对方卡号</t>
   </si>
   <si>
@@ -85,12 +104,18 @@
     <t>交易对方账号开户行</t>
   </si>
   <si>
+    <t>对方账户开户行名</t>
+  </si>
+  <si>
     <t>交易摘要</t>
   </si>
   <si>
     <t>交易网点代码</t>
   </si>
   <si>
+    <t>交易机构号</t>
+  </si>
+  <si>
     <t>终端号</t>
   </si>
   <si>
@@ -109,9 +134,15 @@
     <t>IP地址</t>
   </si>
   <si>
+    <t>IP地址（网银或手机银行）</t>
+  </si>
+  <si>
     <t>MAC地址</t>
   </si>
   <si>
+    <t>MAC地址（网银或手机银行）</t>
+  </si>
+  <si>
     <t>交易柜员号</t>
   </si>
   <si>
@@ -131,6 +162,69 @@
   </si>
   <si>
     <t>回执时间</t>
+  </si>
+  <si>
+    <t>账号</t>
+  </si>
+  <si>
+    <t>卡号</t>
+  </si>
+  <si>
+    <t>发生额</t>
+  </si>
+  <si>
+    <t>工作日期</t>
+  </si>
+  <si>
+    <t>交易时间戳</t>
+  </si>
+  <si>
+    <t>记帐时间</t>
+  </si>
+  <si>
+    <t>交易网点号</t>
+  </si>
+  <si>
+    <t>交易网点号(原始)</t>
+  </si>
+  <si>
+    <t>帐户物理网点号</t>
+  </si>
+  <si>
+    <t>交易地区号</t>
+  </si>
+  <si>
+    <t>交易地区号(原始)</t>
+  </si>
+  <si>
+    <t>零售存取款摘要</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>对方帐户</t>
+  </si>
+  <si>
+    <t>对方客户编号</t>
+  </si>
+  <si>
+    <t>对方户名</t>
+  </si>
+  <si>
+    <t>对方开户行名</t>
+  </si>
+  <si>
+    <t>柜员号</t>
+  </si>
+  <si>
+    <t>授权柜员号</t>
+  </si>
+  <si>
+    <t>交易代码</t>
+  </si>
+  <si>
+    <t>服务界面</t>
   </si>
 </sst>
 </file>
@@ -1075,19 +1169,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="20.875" customWidth="1"/>
     <col min="2" max="2" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:2">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1199,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -1121,7 +1215,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -1140,7 +1234,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1151,204 +1245,504 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11" s="2"/>
+    </row>
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15" s="2"/>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16" s="2"/>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18" s="2"/>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19" s="2"/>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20" s="2"/>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21" s="2"/>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22" s="2"/>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24" s="2"/>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>33</v>
+      </c>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" ht="27" spans="1:3">
+      <c r="A35" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" ht="27" spans="1:3">
+      <c r="A37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" t="s">
+        <v>2</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>27</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>27</v>
+      </c>
+      <c r="B53" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>26</v>
+      </c>
+      <c r="B56" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>39</v>
+      </c>
+      <c r="B57" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>19</v>
+      </c>
+      <c r="B58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>22</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>17</v>
+      </c>
+      <c r="B60" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>24</v>
+      </c>
+      <c r="B61" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>4</v>
+      </c>
+      <c r="B64" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1356,38 +1750,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>